--- a/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
+++ b/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>8.659380502592677</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.1107587875764343</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1116453926146825</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1635099888121481</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.252950313514092</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
+++ b/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
@@ -586,19 +586,19 @@
         <v>0.1835616438356164</v>
       </c>
       <c r="D4" t="n">
-        <v>112469.5355748981</v>
+        <v>112496.5643774469</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02860208061942119</v>
+        <v>-0.02751461436739952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1945963991979602</v>
+        <v>0.1908283209229917</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.732727734055303</v>
+        <v>-1.630757786286523</v>
       </c>
       <c r="H4" t="n">
-        <v>14.64010191289535</v>
+        <v>13.94330982624902</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.2602739726027397</v>
       </c>
       <c r="D5" t="n">
-        <v>113302.6992016791</v>
+        <v>113257.7075729683</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02383216126913151</v>
+        <v>-0.0260929860268405</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1880155588184002</v>
+        <v>0.1976417838309602</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6371707632613677</v>
+        <v>-0.9526286791957003</v>
       </c>
       <c r="H5" t="n">
-        <v>5.924321417899901</v>
+        <v>8.011327814748469</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4328767123287671</v>
       </c>
       <c r="D7" t="n">
-        <v>114568.6677224931</v>
+        <v>115225.6038564603</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08019529287344332</v>
+        <v>-0.05720997373000878</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4402517202702881</v>
+        <v>0.357941707382721</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.535626721206049</v>
+        <v>-2.143755865867489</v>
       </c>
       <c r="H7" t="n">
-        <v>12.4602737610086</v>
+        <v>10.360678328631</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.084931506849315</v>
       </c>
       <c r="D10" t="n">
-        <v>118499.1271103777</v>
+        <v>118504.1672356246</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1213504611926799</v>
+        <v>-0.1198421171135392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4575414918244194</v>
+        <v>0.4463146263340288</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.015470435002478</v>
+        <v>-1.87982023229993</v>
       </c>
       <c r="H10" t="n">
-        <v>10.56506539496947</v>
+        <v>9.368141195375056</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.331506849315069</v>
       </c>
       <c r="D11" t="n">
-        <v>120202.3199361914</v>
+        <v>120171.7317044994</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1832191199681749</v>
+        <v>-0.197366911094061</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6643004132424419</v>
+        <v>0.7694093643850638</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.02774337069925</v>
+        <v>-2.508656671379411</v>
       </c>
       <c r="H11" t="n">
-        <v>8.019020815794072</v>
+        <v>11.85477798019164</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1020,19 +1020,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D16" t="n">
-        <v>110836.456522806</v>
+        <v>110850.5560671159</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1260819263428638</v>
+        <v>-0.1240136578688794</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2290883680768567</v>
+        <v>0.2112073882646306</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.239664709412423</v>
+        <v>-1.23600031829959</v>
       </c>
       <c r="H16" t="n">
-        <v>21.86666707202368</v>
+        <v>6.953670483699389</v>
       </c>
       <c r="I16" t="n">
         <v>-0.04722204638254809</v>
@@ -1146,19 +1146,19 @@
         <v>0.0684931506849315</v>
       </c>
       <c r="D19" t="n">
-        <v>111613.2690351383</v>
+        <v>111852.8801667728</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.03868504426338365</v>
+        <v>-0.02543629067531163</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1996766475076892</v>
+        <v>0.1502538349772886</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.966638177928622</v>
+        <v>-0.4126904493292714</v>
       </c>
       <c r="H19" t="n">
-        <v>16.06317020324577</v>
+        <v>5.976168422060785</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>

--- a/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
+++ b/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>9.77061856561763</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.1204093451572364</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1892605220834141</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.05753396928762246</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.955204988064525</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1160,10 +1168,18 @@
       <c r="H19" t="n">
         <v>5.976168422060785</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.1020160206622348</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2027549831729459</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02874491917806615</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.893251968313156</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
+++ b/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
@@ -1210,10 +1210,18 @@
       <c r="H20" t="n">
         <v>5.831970636100692</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.1812112505621168</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2568683653986759</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3217421160765271</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.484956439386924</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
+++ b/data_processed/20250825/BTCUSDQMOMENT_20250825.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>13.94330982624902</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.2249675675517139</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5161496630566509</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.765648256423696</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.108089542562038</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
